--- a/medicine/Sexualité et sexologie/Gode_ceinture/Gode_ceinture.xlsx
+++ b/medicine/Sexualité et sexologie/Gode_ceinture/Gode_ceinture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un gode ceinture (nommé également strapon) est un godemichet conçu pour être porté à l'aide d'un harnais par un partenaire qui l'utilise pour pénétrer un autre partenaire. 
-Il convient aussi bien aux couples hétérosexuels qu'aux couples homosexuels[1]. 
-Utilisé par une femme, le gode ceinture peut servir à pénétrer un homme par voie anale ou orale, ou une autre femme par voie vaginale, anale ou orale[2].  
+Il convient aussi bien aux couples hétérosexuels qu'aux couples homosexuels. 
+Utilisé par une femme, le gode ceinture peut servir à pénétrer un homme par voie anale ou orale, ou une autre femme par voie vaginale, anale ou orale.  
 Cette pratique sexuelle se nomme le pegging ou chevillage.  
-Utilisé par un homme les godes ceintures peuvent servir pour la pénétration, pour pallier des problèmes de dysfonction érectile, pour la double pénétration ou pour pénétrer plusieurs partenaires[3].
+Utilisé par un homme les godes ceintures peuvent servir pour la pénétration, pour pallier des problèmes de dysfonction érectile, pour la double pénétration ou pour pénétrer plusieurs partenaires.
 Une large variété de harnais et de godemichets sont disponibles avec différentes manières d'être portés, de stimuler le porteur ou le récepteur et tous avec des options différentes, des avantages et des désagréments pour les deux utilisateurs.
 </t>
         </is>
@@ -516,7 +528,9 @@
           <t>Type de harnais</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La première partie de l'installation d'un harnais, qui connecte le godemichet au corps du porteur, habituellement dans une position similaire à ceux des organes génitaux masculins. Un bon harnais devrait être robuste tout en étant confortable[réf. souhaitée] et est souvent conçu pour donner du plaisir au porteur. Plusieurs différents types de harnais sont disponibles avec des avantages et des désagréments. Le meilleur harnais pour une personne donnée dépend plus du goût. Certains godemichets n'ont pas besoin d'un harnais ou sont incorporés dans un autre accessoire. Pour ceux-là, on peut consulter les sections sur les types de godemichet et sur les manières d'installer un godemichet.
 2 lanières - Un harnais à deux lanières, dans sa forme la plus simple, est similaire à un string. Une lanière s'installe autour de la taille avec une autre lanière se plaçant autour des jambes. Les deux lanières sont reliées au milieu du dos du porteur. Alors que ce type est plutôt simple, la plupart des personnes le trouvent inconfortable principalement parce que la lanière frotte contre l'anus et des autres parties du corps et, bien des fois, ne retient pas le godemichet fermement causant parfois à flotter, à se décrocher ou à se tordre.
@@ -551,12 +565,14 @@
           <t>Systèmes de fixation du godemichet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs systèmes permettant de maintenir en place un godemichet dans un harnais existent. Ces systèmes ne sont pas compatibles avec tous les types de sextoys. Entre autres, nous pouvons recenser :
 L'anneau de fixation élastique (parfois appelé O-Ring). Ce système est compatible avec tous les godemichets possédant une base suffisamment plate, et plus large que le diamètre du sextoy (du moment que celle-ci n'est pas trop épaisse, et que le diamètre du sextoy ne s'éloigne pas trop du diamètre de l'anneau).
 L'anneau de fixation non-élastique. Ce système laisse moins de choix que l'anneau de fixation élastique quant aux dimensions du godemichet. Il s'utilise, lui aussi, avec des godemichets dont la base est large et plate. On le retrouve souvent chez des harnais pour lesquels le godemichet est fourni.
-Le système de fixation Vac-U-Lock, de la marque Doc Johnson : le harnais comporte une tige rigide en plastique. C'est sur cette tige que l'on fixe le godemichet, qui doit être spécialement prévu pour être compatible avec ce système de fixation (i.e., qui doit posséder un creux dont la forme est prévue pour y emboîter la tige du harnais)[4]. L'usage de talc est généralement recommandé pour ne pas endommager le godemiché.</t>
+Le système de fixation Vac-U-Lock, de la marque Doc Johnson : le harnais comporte une tige rigide en plastique. C'est sur cette tige que l'on fixe le godemichet, qui doit être spécialement prévu pour être compatible avec ce système de fixation (i.e., qui doit posséder un creux dont la forme est prévue pour y emboîter la tige du harnais). L'usage de talc est généralement recommandé pour ne pas endommager le godemiché.</t>
         </is>
       </c>
     </row>
@@ -584,7 +600,9 @@
           <t>Types de godemichet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La particularité la plus importante de l'installation d'un harnais est le godemichet utilisé. Une variété de godemichets sont disponibles et bien que certains harnais limitent le choix des godemichets, généralement il est possible de choisir entre plusieurs types communs de godemichet. Cette section discute des différentes formes et particularités de la partie pénétrante des godemichets, pas le godemichet tout entier ou la manière dont il est attaché, ce qui peut être trouvé dans la section des méthodes de fixation pour les godemichets doubles et des godemichets dépourvus de lanières.
 Standard - Les godemichets "standard" ne sont pas coniques (ou alors légèrement). Ils peuvent comporter, à leur extrémité, une zone plus large, imitant la forme du gland d'un pénis. Ils peuvent être légèrement courbés.
@@ -621,8 +639,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cinéma et télévision
-2007 : Daisy Diamond, entre Trine Dyrholm et Noomi Rapace
+          <t>Cinéma et télévision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2007 : Daisy Diamond, entre Trine Dyrholm et Noomi Rapace
 2013 : Sex &amp; Violence (en) (série télévisée), entre Jennie Raymond et Lisa Rose Snow (saison 1, épisode 2)
 2013 : Proxy, entre Alexia Rasmussen et Kristina Klebe
 2014 : Shameless (série télévisée), Isidora Goreshter (saison 4 épisode 12)
@@ -631,9 +654,43 @@
 2016 : Below Her Mouth, entre Erika Linder et Natalie Krill
 2017 : Transparent (série télévisée), entre Alia Shawkat et Amy Landecker (saison 4, épisode 2)
 2017 : Becks, entre Lena Hall et Mena Suvari
-2017 :  L'Amant double, entre Marine Vacth et Jérémie Renier
-Cinéma pornographique
-Le gode ceinture est à la base d'un grand nombre de films X lesbiens dédiés à son utilisation. Une série célèbre est « Strapon Sally », ainsi que « Lesbian Adventures: Strap-On Specialists ».
+2017 :  L'Amant double, entre Marine Vacth et Jérémie Renier</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gode_ceinture</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gode_ceinture</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Culture populaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cinéma pornographique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gode ceinture est à la base d'un grand nombre de films X lesbiens dédiés à son utilisation. Une série célèbre est « Strapon Sally », ainsi que « Lesbian Adventures: Strap-On Specialists ».
 </t>
         </is>
       </c>
